--- a/InputData/bldgs/CL/Component Lifetime.xlsx
+++ b/InputData/bldgs/CL/Component Lifetime.xlsx
@@ -744,7 +744,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
